--- a/EC1-ECG_Analysis/ecg_oversampling/safetyArtist/UMCE Results/UMCE Metrics All Folds.xlsx
+++ b/EC1-ECG_Analysis/ecg_oversampling/safetyArtist/UMCE Results/UMCE Metrics All Folds.xlsx
@@ -10,14 +10,14 @@
     <sheet name="CON_Metrics_All_Folds" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CON_Metrics_All_Folds">CON_Metrics_All_Folds!$A$1:$AE$9</definedName>
+    <definedName name="CON_Metrics_All_Folds">CON_Metrics_All_Folds!$A$2:$AE$10</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t>0</t>
   </si>
@@ -149,19 +149,31 @@
   </si>
   <si>
     <t>Holdout_test_metrics_ResNet_Fold10.f1-score</t>
+  </si>
+  <si>
+    <t>Results Obtained in the Case Study</t>
+  </si>
+  <si>
+    <t>Results Reported by Kozal and Ksieniewicz (as per paper 'Imbalance Reduction Techniques Applied to ECG Classification Problem')</t>
+  </si>
+  <si>
+    <t>Not Reported</t>
+  </si>
+  <si>
+    <t>Relative Difference Between Case Study and Kozal and Ksieniewicz's Paper</t>
+  </si>
+  <si>
+    <t>Not comparable (lacking reference results from Kozal and Ksieniewicz)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,8 +199,15 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,8 +226,14 @@
         <bgColor indexed="0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -261,12 +286,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -286,10 +349,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_CON_Metrics_All_Folds" xfId="1"/>
+    <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -588,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE16"/>
+  <dimension ref="A1:AE33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,973 +712,1208 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="A1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5">
-        <v>0.996531515368975</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0.91974831659123524</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0.95660160734787592</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0.99737501491468794</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0.92272877801081798</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0.9586009174311928</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0.9965397923875432</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0.92195606579092615</v>
-      </c>
-      <c r="J2" s="5">
-        <v>0.95779816513761473</v>
-      </c>
-      <c r="K2" s="5">
-        <v>0.99525729191368273</v>
-      </c>
-      <c r="L2" s="5">
-        <v>0.92659233911027705</v>
-      </c>
-      <c r="M2" s="5">
-        <v>0.95969816498027793</v>
-      </c>
-      <c r="N2" s="5">
-        <v>0.99518246416957723</v>
-      </c>
-      <c r="O2" s="5">
-        <v>0.91213158185230159</v>
-      </c>
-      <c r="P2" s="5">
-        <v>0.95184886533809476</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>0.99554538887551169</v>
-      </c>
-      <c r="R2" s="5">
-        <v>0.91279390661220883</v>
-      </c>
-      <c r="S2" s="5">
-        <v>0.95237546789519145</v>
-      </c>
-      <c r="T2" s="5">
-        <v>0.99625422909618178</v>
-      </c>
-      <c r="U2" s="5">
-        <v>0.91014460757257976</v>
-      </c>
-      <c r="V2" s="5">
-        <v>0.95125468704932215</v>
-      </c>
-      <c r="W2" s="5">
-        <v>0.99676685426894984</v>
-      </c>
-      <c r="X2" s="5">
-        <v>0.91886521691135892</v>
-      </c>
-      <c r="Y2" s="5">
-        <v>0.9562320505456634</v>
-      </c>
-      <c r="Z2" s="5">
-        <v>0.995724973281083</v>
-      </c>
-      <c r="AA2" s="5">
-        <v>0.92559885197041614</v>
-      </c>
-      <c r="AB2" s="5">
-        <v>0.95938215102974822</v>
-      </c>
-      <c r="AC2" s="5">
-        <v>0.99738188742115907</v>
-      </c>
-      <c r="AD2" s="5">
-        <v>0.9252594391697947</v>
-      </c>
-      <c r="AE2" s="5">
-        <v>0.95996792852643031</v>
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="5">
-        <v>0.39876352395672332</v>
+        <v>0.996531515368975</v>
       </c>
       <c r="C3" s="5">
-        <v>0.92805755395683454</v>
+        <v>0.91974831659123524</v>
       </c>
       <c r="D3" s="5">
-        <v>0.5578378378378378</v>
+        <v>0.95660160734787592</v>
       </c>
       <c r="E3" s="5">
-        <v>0.39263803680981596</v>
+        <v>0.99737501491468794</v>
       </c>
       <c r="F3" s="5">
-        <v>0.92086330935251803</v>
+        <v>0.92272877801081798</v>
       </c>
       <c r="G3" s="5">
-        <v>0.55053763440860215</v>
+        <v>0.9586009174311928</v>
       </c>
       <c r="H3" s="5">
-        <v>0.38426626323751889</v>
+        <v>0.9965397923875432</v>
       </c>
       <c r="I3" s="5">
-        <v>0.91366906474820142</v>
+        <v>0.92195606579092615</v>
       </c>
       <c r="J3" s="5">
-        <v>0.54100106496272626</v>
+        <v>0.95779816513761473</v>
       </c>
       <c r="K3" s="5">
-        <v>0.39313572542901715</v>
+        <v>0.99525729191368273</v>
       </c>
       <c r="L3" s="5">
-        <v>0.90647482014388492</v>
+        <v>0.92659233911027705</v>
       </c>
       <c r="M3" s="5">
-        <v>0.54842219804134928</v>
+        <v>0.95969816498027793</v>
       </c>
       <c r="N3" s="5">
-        <v>0.36416184971098264</v>
+        <v>0.99518246416957723</v>
       </c>
       <c r="O3" s="5">
-        <v>0.90647482014388492</v>
+        <v>0.91213158185230159</v>
       </c>
       <c r="P3" s="5">
-        <v>0.51958762886597931</v>
+        <v>0.95184886533809476</v>
       </c>
       <c r="Q3" s="5">
-        <v>0.352112676056338</v>
+        <v>0.99554538887551169</v>
       </c>
       <c r="R3" s="5">
-        <v>0.89928057553956831</v>
+        <v>0.91279390661220883</v>
       </c>
       <c r="S3" s="5">
-        <v>0.50607287449392713</v>
+        <v>0.95237546789519145</v>
       </c>
       <c r="T3" s="5">
-        <v>0.36260623229461758</v>
+        <v>0.99625422909618178</v>
       </c>
       <c r="U3" s="5">
-        <v>0.92086330935251803</v>
+        <v>0.91014460757257976</v>
       </c>
       <c r="V3" s="5">
-        <v>0.52032520325203258</v>
+        <v>0.95125468704932215</v>
       </c>
       <c r="W3" s="5">
-        <v>0.3607681755829904</v>
+        <v>0.99676685426894984</v>
       </c>
       <c r="X3" s="5">
-        <v>0.9460431654676259</v>
+        <v>0.91886521691135892</v>
       </c>
       <c r="Y3" s="5">
-        <v>0.5223435948361469</v>
+        <v>0.9562320505456634</v>
       </c>
       <c r="Z3" s="5">
-        <v>0.37335285505124449</v>
+        <v>0.995724973281083</v>
       </c>
       <c r="AA3" s="5">
-        <v>0.92057761732851984</v>
+        <v>0.92559885197041614</v>
       </c>
       <c r="AB3" s="5">
-        <v>0.53125000000000011</v>
+        <v>0.95938215102974822</v>
       </c>
       <c r="AC3" s="5">
-        <v>0.40184049079754602</v>
+        <v>0.99738188742115907</v>
       </c>
       <c r="AD3" s="5">
-        <v>0.94244604316546765</v>
+        <v>0.9252594391697947</v>
       </c>
       <c r="AE3" s="5">
-        <v>0.5634408602150538</v>
+        <v>0.95996792852643031</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="5">
-        <v>0.88227684346701163</v>
+        <v>0.39876352395672332</v>
       </c>
       <c r="C4" s="5">
-        <v>0.94198895027624308</v>
+        <v>0.92805755395683454</v>
       </c>
       <c r="D4" s="5">
-        <v>0.91115564462257848</v>
+        <v>0.5578378378378378</v>
       </c>
       <c r="E4" s="5">
-        <v>0.89453125</v>
+        <v>0.39263803680981596</v>
       </c>
       <c r="F4" s="5">
-        <v>0.94889502762430944</v>
+        <v>0.92086330935251803</v>
       </c>
       <c r="G4" s="5">
-        <v>0.92091152815013411</v>
+        <v>0.55053763440860215</v>
       </c>
       <c r="H4" s="5">
-        <v>0.8635235732009926</v>
+        <v>0.38426626323751889</v>
       </c>
       <c r="I4" s="5">
-        <v>0.96132596685082872</v>
+        <v>0.91366906474820142</v>
       </c>
       <c r="J4" s="5">
-        <v>0.90980392156862744</v>
+        <v>0.54100106496272626</v>
       </c>
       <c r="K4" s="5">
-        <v>0.87113402061855671</v>
+        <v>0.39313572542901715</v>
       </c>
       <c r="L4" s="5">
-        <v>0.93370165745856348</v>
+        <v>0.90647482014388492</v>
       </c>
       <c r="M4" s="5">
-        <v>0.90133333333333321</v>
+        <v>0.54842219804134928</v>
       </c>
       <c r="N4" s="5">
-        <v>0.85982478097622028</v>
+        <v>0.36416184971098264</v>
       </c>
       <c r="O4" s="5">
-        <v>0.950207468879668</v>
+        <v>0.90647482014388492</v>
       </c>
       <c r="P4" s="5">
-        <v>0.90275952693823913</v>
+        <v>0.51958762886597931</v>
       </c>
       <c r="Q4" s="5">
-        <v>0.88888888888888884</v>
+        <v>0.352112676056338</v>
       </c>
       <c r="R4" s="5">
-        <v>0.94052558782849238</v>
+        <v>0.89928057553956831</v>
       </c>
       <c r="S4" s="5">
-        <v>0.91397849462365588</v>
+        <v>0.50607287449392713</v>
       </c>
       <c r="T4" s="5">
-        <v>0.88076923076923075</v>
+        <v>0.36260623229461758</v>
       </c>
       <c r="U4" s="5">
-        <v>0.950207468879668</v>
+        <v>0.92086330935251803</v>
       </c>
       <c r="V4" s="5">
-        <v>0.9141716566866267</v>
+        <v>0.52032520325203258</v>
       </c>
       <c r="W4" s="5">
-        <v>0.87579214195183774</v>
+        <v>0.3607681755829904</v>
       </c>
       <c r="X4" s="5">
-        <v>0.95573997233748276</v>
+        <v>0.9460431654676259</v>
       </c>
       <c r="Y4" s="5">
-        <v>0.91402116402116407</v>
+        <v>0.5223435948361469</v>
       </c>
       <c r="Z4" s="5">
-        <v>0.90596026490066228</v>
+        <v>0.37335285505124449</v>
       </c>
       <c r="AA4" s="5">
-        <v>0.94475138121546964</v>
+        <v>0.92057761732851984</v>
       </c>
       <c r="AB4" s="5">
-        <v>0.92494929006085203</v>
+        <v>0.53125000000000011</v>
       </c>
       <c r="AC4" s="5">
-        <v>0.87022900763358779</v>
+        <v>0.40184049079754602</v>
       </c>
       <c r="AD4" s="5">
-        <v>0.94475138121546964</v>
+        <v>0.94244604316546765</v>
       </c>
       <c r="AE4" s="5">
-        <v>0.90596026490066228</v>
+        <v>0.5634408602150538</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="5">
-        <v>0.22356495468277945</v>
+        <v>0.88227684346701163</v>
       </c>
       <c r="C5" s="5">
-        <v>0.92500000000000004</v>
+        <v>0.94198895027624308</v>
       </c>
       <c r="D5" s="5">
-        <v>0.36009732360097324</v>
+        <v>0.91115564462257848</v>
       </c>
       <c r="E5" s="5">
-        <v>0.24920127795527156</v>
+        <v>0.89453125</v>
       </c>
       <c r="F5" s="5">
-        <v>0.97499999999999998</v>
+        <v>0.94889502762430944</v>
       </c>
       <c r="G5" s="5">
-        <v>0.39694656488549612</v>
+        <v>0.92091152815013411</v>
       </c>
       <c r="H5" s="5">
-        <v>0.27067669172932329</v>
+        <v>0.8635235732009926</v>
       </c>
       <c r="I5" s="5">
-        <v>0.9</v>
+        <v>0.96132596685082872</v>
       </c>
       <c r="J5" s="5">
-        <v>0.41618497109826585</v>
+        <v>0.90980392156862744</v>
       </c>
       <c r="K5" s="5">
-        <v>0.27472527472527475</v>
+        <v>0.87113402061855671</v>
       </c>
       <c r="L5" s="5">
-        <v>0.9375</v>
+        <v>0.93370165745856348</v>
       </c>
       <c r="M5" s="5">
-        <v>0.42492917847025502</v>
+        <v>0.90133333333333321</v>
       </c>
       <c r="N5" s="5">
-        <v>0.21621621621621623</v>
+        <v>0.85982478097622028</v>
       </c>
       <c r="O5" s="5">
+        <v>0.950207468879668</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0.90275952693823913</v>
+      </c>
+      <c r="Q5" s="5">
         <v>0.88888888888888884</v>
       </c>
-      <c r="P5" s="5">
-        <v>0.34782608695652173</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>0.22190201729106629</v>
-      </c>
       <c r="R5" s="5">
-        <v>0.95061728395061729</v>
+        <v>0.94052558782849238</v>
       </c>
       <c r="S5" s="5">
-        <v>0.35981308411214957</v>
+        <v>0.91397849462365588</v>
       </c>
       <c r="T5" s="5">
-        <v>0.22922636103151864</v>
+        <v>0.88076923076923075</v>
       </c>
       <c r="U5" s="5">
-        <v>0.98765432098765427</v>
+        <v>0.950207468879668</v>
       </c>
       <c r="V5" s="5">
-        <v>0.37209302325581395</v>
+        <v>0.9141716566866267</v>
       </c>
       <c r="W5" s="5">
-        <v>0.30081300813008133</v>
+        <v>0.87579214195183774</v>
       </c>
       <c r="X5" s="5">
-        <v>0.92500000000000004</v>
+        <v>0.95573997233748276</v>
       </c>
       <c r="Y5" s="5">
-        <v>0.45398773006134979</v>
+        <v>0.91402116402116407</v>
       </c>
       <c r="Z5" s="5">
-        <v>0.26470588235294118</v>
+        <v>0.90596026490066228</v>
       </c>
       <c r="AA5" s="5">
-        <v>0.9</v>
+        <v>0.94475138121546964</v>
       </c>
       <c r="AB5" s="5">
-        <v>0.40909090909090906</v>
+        <v>0.92494929006085203</v>
       </c>
       <c r="AC5" s="5">
-        <v>0.27857142857142858</v>
+        <v>0.87022900763358779</v>
       </c>
       <c r="AD5" s="5">
-        <v>0.97499999999999998</v>
+        <v>0.94475138121546964</v>
       </c>
       <c r="AE5" s="5">
-        <v>0.43333333333333335</v>
+        <v>0.90596026490066228</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="5">
-        <v>0.95798319327731096</v>
+        <v>0.22356495468277945</v>
       </c>
       <c r="C6" s="5">
-        <v>0.9925373134328358</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="D6" s="5">
-        <v>0.97495418448381177</v>
+        <v>0.36009732360097324</v>
       </c>
       <c r="E6" s="5">
-        <v>0.96028880866425992</v>
+        <v>0.24920127795527156</v>
       </c>
       <c r="F6" s="5">
-        <v>0.9925373134328358</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="G6" s="5">
-        <v>0.97614678899082574</v>
+        <v>0.39694656488549612</v>
       </c>
       <c r="H6" s="5">
-        <v>0.95788206979542723</v>
+        <v>0.27067669172932329</v>
       </c>
       <c r="I6" s="5">
-        <v>0.99004975124378114</v>
+        <v>0.9</v>
       </c>
       <c r="J6" s="5">
-        <v>0.97370030581039768</v>
+        <v>0.41618497109826585</v>
       </c>
       <c r="K6" s="5">
-        <v>0.9719853836784409</v>
+        <v>0.27472527472527475</v>
       </c>
       <c r="L6" s="5">
-        <v>0.9925373134328358</v>
+        <v>0.9375</v>
       </c>
       <c r="M6" s="5">
-        <v>0.98215384615384604</v>
+        <v>0.42492917847025502</v>
       </c>
       <c r="N6" s="5">
-        <v>0.9682151589242054</v>
+        <v>0.21621621621621623</v>
       </c>
       <c r="O6" s="5">
-        <v>0.9850746268656716</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="P6" s="5">
-        <v>0.97657213316892721</v>
+        <v>0.34782608695652173</v>
       </c>
       <c r="Q6" s="5">
-        <v>0.97429620563035491</v>
+        <v>0.22190201729106629</v>
       </c>
       <c r="R6" s="5">
-        <v>0.99004975124378114</v>
+        <v>0.95061728395061729</v>
       </c>
       <c r="S6" s="5">
-        <v>0.98210980876002452</v>
+        <v>0.35981308411214957</v>
       </c>
       <c r="T6" s="5">
-        <v>0.95438175270108039</v>
+        <v>0.22922636103151864</v>
       </c>
       <c r="U6" s="5">
-        <v>0.99003735990037356</v>
+        <v>0.98765432098765427</v>
       </c>
       <c r="V6" s="5">
-        <v>0.97188264058679708</v>
+        <v>0.37209302325581395</v>
       </c>
       <c r="W6" s="5">
-        <v>0.95295536791314839</v>
+        <v>0.30081300813008133</v>
       </c>
       <c r="X6" s="5">
-        <v>0.98258706467661694</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="Y6" s="5">
-        <v>0.96754439681567672</v>
+        <v>0.45398773006134979</v>
       </c>
       <c r="Z6" s="5">
-        <v>0.97539975399753998</v>
+        <v>0.26470588235294118</v>
       </c>
       <c r="AA6" s="5">
-        <v>0.98631840796019898</v>
+        <v>0.9</v>
       </c>
       <c r="AB6" s="5">
-        <v>0.9808286951144094</v>
+        <v>0.40909090909090906</v>
       </c>
       <c r="AC6" s="5">
-        <v>0.96962332928311057</v>
+        <v>0.27857142857142858</v>
       </c>
       <c r="AD6" s="5">
-        <v>0.9925373134328358</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="AE6" s="5">
-        <v>0.98094652735095267</v>
+        <v>0.43333333333333335</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="5">
-        <v>0.92681589767016903</v>
+        <v>0.95798319327731096</v>
       </c>
       <c r="C7" s="5">
-        <v>0.92681589767016903</v>
+        <v>0.9925373134328358</v>
       </c>
       <c r="D7" s="5">
-        <v>0.92681589767016903</v>
+        <v>0.97495418448381177</v>
       </c>
       <c r="E7" s="5">
-        <v>0.92992233896756504</v>
+        <v>0.96028880866425992</v>
       </c>
       <c r="F7" s="5">
-        <v>0.92992233896756504</v>
+        <v>0.9925373134328358</v>
       </c>
       <c r="G7" s="5">
-        <v>0.92992233896756504</v>
+        <v>0.97614678899082574</v>
       </c>
       <c r="H7" s="5">
-        <v>0.92919141160347185</v>
+        <v>0.95788206979542723</v>
       </c>
       <c r="I7" s="5">
-        <v>0.92919141160347185</v>
+        <v>0.99004975124378114</v>
       </c>
       <c r="J7" s="5">
-        <v>0.92919141160347185</v>
+        <v>0.97370030581039768</v>
       </c>
       <c r="K7" s="5">
-        <v>0.93147555961626316</v>
+        <v>0.9719853836784409</v>
       </c>
       <c r="L7" s="5">
-        <v>0.93147555961626316</v>
+        <v>0.9925373134328358</v>
       </c>
       <c r="M7" s="5">
-        <v>0.93147555961626316</v>
+        <v>0.98215384615384604</v>
       </c>
       <c r="N7" s="5">
-        <v>0.91968935587026035</v>
+        <v>0.9682151589242054</v>
       </c>
       <c r="O7" s="5">
-        <v>0.91968935587026035</v>
+        <v>0.9850746268656716</v>
       </c>
       <c r="P7" s="5">
-        <v>0.91968935587026035</v>
+        <v>0.97657213316892721</v>
       </c>
       <c r="Q7" s="5">
-        <v>0.9202375513933303</v>
+        <v>0.97429620563035491</v>
       </c>
       <c r="R7" s="5">
-        <v>0.9202375513933303</v>
+        <v>0.99004975124378114</v>
       </c>
       <c r="S7" s="5">
-        <v>0.9202375513933303</v>
+        <v>0.98210980876002452</v>
       </c>
       <c r="T7" s="5">
-        <v>0.919499269005848</v>
+        <v>0.95438175270108039</v>
       </c>
       <c r="U7" s="5">
-        <v>0.919499269005848</v>
+        <v>0.99003735990037356</v>
       </c>
       <c r="V7" s="5">
-        <v>0.919499269005848</v>
+        <v>0.97188264058679708</v>
       </c>
       <c r="W7" s="5">
-        <v>0.92671783625730997</v>
+        <v>0.95295536791314839</v>
       </c>
       <c r="X7" s="5">
-        <v>0.92671783625730997</v>
+        <v>0.98258706467661694</v>
       </c>
       <c r="Y7" s="5">
-        <v>0.92671783625730997</v>
+        <v>0.96754439681567672</v>
       </c>
       <c r="Z7" s="5">
-        <v>0.93101242690058483</v>
+        <v>0.97539975399753998</v>
       </c>
       <c r="AA7" s="5">
-        <v>0.93101242690058483</v>
+        <v>0.98631840796019898</v>
       </c>
       <c r="AB7" s="5">
-        <v>0.93101242690058483</v>
+        <v>0.9808286951144094</v>
       </c>
       <c r="AC7" s="5">
-        <v>0.93229166666666663</v>
+        <v>0.96962332928311057</v>
       </c>
       <c r="AD7" s="5">
-        <v>0.93229166666666663</v>
+        <v>0.9925373134328358</v>
       </c>
       <c r="AE7" s="5">
-        <v>0.93229166666666663</v>
+        <v>0.98094652735095267</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="5">
-        <v>0.69182400615056017</v>
+        <v>0.92681589767016903</v>
       </c>
       <c r="C8" s="5">
-        <v>0.94146642685142967</v>
+        <v>0.92681589767016903</v>
       </c>
       <c r="D8" s="5">
-        <v>0.7521293195786154</v>
+        <v>0.92681589767016903</v>
       </c>
       <c r="E8" s="5">
-        <v>0.698806877668807</v>
+        <v>0.92992233896756504</v>
       </c>
       <c r="F8" s="5">
-        <v>0.95200488568409636</v>
+        <v>0.92992233896756504</v>
       </c>
       <c r="G8" s="5">
-        <v>0.76062868677325013</v>
+        <v>0.92992233896756504</v>
       </c>
       <c r="H8" s="5">
-        <v>0.69457767807016113</v>
+        <v>0.92919141160347185</v>
       </c>
       <c r="I8" s="5">
-        <v>0.93740016972674756</v>
+        <v>0.92919141160347185</v>
       </c>
       <c r="J8" s="5">
-        <v>0.75969768571552643</v>
+        <v>0.92919141160347185</v>
       </c>
       <c r="K8" s="5">
-        <v>0.70124753927299444</v>
+        <v>0.93147555961626316</v>
       </c>
       <c r="L8" s="5">
-        <v>0.93936122602911232</v>
+        <v>0.93147555961626316</v>
       </c>
       <c r="M8" s="5">
-        <v>0.76330734419581225</v>
+        <v>0.93147555961626316</v>
       </c>
       <c r="N8" s="5">
-        <v>0.68072009399944045</v>
+        <v>0.91968935587026035</v>
       </c>
       <c r="O8" s="5">
-        <v>0.92855547732608312</v>
+        <v>0.91968935587026035</v>
       </c>
       <c r="P8" s="5">
-        <v>0.73971884825355239</v>
+        <v>0.91968935587026035</v>
       </c>
       <c r="Q8" s="5">
-        <v>0.68654903534843192</v>
+        <v>0.9202375513933303</v>
       </c>
       <c r="R8" s="5">
-        <v>0.93865342103493354</v>
+        <v>0.9202375513933303</v>
       </c>
       <c r="S8" s="5">
-        <v>0.74286994597698974</v>
+        <v>0.9202375513933303</v>
       </c>
       <c r="T8" s="5">
-        <v>0.68464756117852577</v>
+        <v>0.919499269005848</v>
       </c>
       <c r="U8" s="5">
-        <v>0.9517814133385587</v>
+        <v>0.919499269005848</v>
       </c>
       <c r="V8" s="5">
-        <v>0.74594544216611836</v>
+        <v>0.919499269005848</v>
       </c>
       <c r="W8" s="5">
-        <v>0.69741910956940156</v>
+        <v>0.92671783625730997</v>
       </c>
       <c r="X8" s="5">
-        <v>0.94564708387861685</v>
+        <v>0.92671783625730997</v>
       </c>
       <c r="Y8" s="5">
-        <v>0.76282578725600025</v>
+        <v>0.92671783625730997</v>
       </c>
       <c r="Z8" s="5">
-        <v>0.70302874591669418</v>
+        <v>0.93101242690058483</v>
       </c>
       <c r="AA8" s="5">
-        <v>0.93544925169492088</v>
+        <v>0.93101242690058483</v>
       </c>
       <c r="AB8" s="5">
-        <v>0.76110020905918385</v>
+        <v>0.93101242690058483</v>
       </c>
       <c r="AC8" s="5">
-        <v>0.70352922874136636</v>
+        <v>0.93229166666666663</v>
       </c>
       <c r="AD8" s="5">
-        <v>0.95599883539671349</v>
+        <v>0.93229166666666663</v>
       </c>
       <c r="AE8" s="5">
-        <v>0.76872978286528648</v>
+        <v>0.93229166666666663</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.69182400615056017</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.94146642685142967</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.7521293195786154</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.698806877668807</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.95200488568409636</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.76062868677325013</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.69457767807016113</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0.93740016972674756</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.75969768571552643</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0.70124753927299444</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0.93936122602911232</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0.76330734419581225</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0.68072009399944045</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0.92855547732608312</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0.73971884825355239</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0.68654903534843192</v>
+      </c>
+      <c r="R9" s="5">
+        <v>0.93865342103493354</v>
+      </c>
+      <c r="S9" s="5">
+        <v>0.74286994597698974</v>
+      </c>
+      <c r="T9" s="5">
+        <v>0.68464756117852577</v>
+      </c>
+      <c r="U9" s="5">
+        <v>0.9517814133385587</v>
+      </c>
+      <c r="V9" s="5">
+        <v>0.74594544216611836</v>
+      </c>
+      <c r="W9" s="5">
+        <v>0.69741910956940156</v>
+      </c>
+      <c r="X9" s="5">
+        <v>0.94564708387861685</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>0.76282578725600025</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>0.70302874591669418</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>0.93544925169492088</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>0.76110020905918385</v>
+      </c>
+      <c r="AC9" s="5">
+        <v>0.70352922874136636</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>0.95599883539671349</v>
+      </c>
+      <c r="AE9" s="5">
+        <v>0.76872978286528648</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B10" s="5">
         <v>0.96530903388096956</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C10" s="5">
         <v>0.92681589767016903</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D10" s="5">
         <v>0.94045504950234216</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E10" s="5">
         <v>0.96701896425288025</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F10" s="5">
         <v>0.92992233896756504</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G10" s="5">
         <v>0.9429267120415652</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H10" s="5">
         <v>0.96404407372043588</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I10" s="5">
         <v>0.92919141160347185</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J10" s="5">
         <v>0.9412462089370851</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K10" s="5">
         <v>0.96477686984912236</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L10" s="5">
         <v>0.93147555961626316</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M10" s="5">
         <v>0.94313187825769573</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N10" s="5">
         <v>0.96246749703665913</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O10" s="5">
         <v>0.91968935587026035</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P10" s="5">
         <v>0.93497279835634406</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q10" s="5">
         <v>0.96487052363279757</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R10" s="5">
         <v>0.9202375513933303</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S10" s="5">
         <v>0.93630198450807678</v>
       </c>
-      <c r="T9" s="5">
+      <c r="T10" s="5">
         <v>0.9637795714975228</v>
       </c>
-      <c r="U9" s="5">
+      <c r="U10" s="5">
         <v>0.919499269005848</v>
       </c>
-      <c r="V9" s="5">
+      <c r="V10" s="5">
         <v>0.93508534535299936</v>
       </c>
-      <c r="W9" s="5">
+      <c r="W10" s="5">
         <v>0.96431317258024873</v>
       </c>
-      <c r="X9" s="5">
+      <c r="X10" s="5">
         <v>0.92671783625730997</v>
       </c>
-      <c r="Y9" s="5">
+      <c r="Y10" s="5">
         <v>0.93958147663465175</v>
       </c>
-      <c r="Z9" s="5">
+      <c r="Z10" s="5">
         <v>0.96719703749934782</v>
       </c>
-      <c r="AA9" s="5">
+      <c r="AA10" s="5">
         <v>0.93101242690058483</v>
       </c>
-      <c r="AB9" s="5">
+      <c r="AB10" s="5">
         <v>0.9438209051335712</v>
       </c>
-      <c r="AC9" s="5">
+      <c r="AC10" s="5">
         <v>0.96654837950097106</v>
       </c>
-      <c r="AD9" s="5">
+      <c r="AD10" s="5">
         <v>0.93229166666666663</v>
       </c>
-      <c r="AE9" s="5">
+      <c r="AE10" s="5">
         <v>0.94401397680711829</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>0</v>
-      </c>
-      <c r="B12" s="6">
-        <f>AVERAGE(B7:AE7)</f>
-        <v>0.92668533139514697</v>
-      </c>
-      <c r="C12" s="1">
-        <f>AVERAGE(B2,E2,H2,K2,N2,Q2,T2,W2,Z2,AC2)</f>
-        <v>0.99625594116973504</v>
-      </c>
-      <c r="D12" s="1">
-        <f>AVERAGE(C2,F2,I2,L2,O2,R2,U2,X2,AA2,AD2)</f>
-        <v>0.91958191035919179</v>
-      </c>
-      <c r="E12" s="1">
-        <f>AVERAGE(D2,G2,J2,M2,P2,S2,V2,Y2,AB2,AE2)</f>
-        <v>0.95637600052814109</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
+        <v>0</v>
+      </c>
+      <c r="B13" s="7">
+        <f>AVERAGE(B8:AE8)</f>
+        <v>0.92668533139514697</v>
+      </c>
+      <c r="C13" s="1">
+        <f>AVERAGE(B3,E3,H3,K3,N3,Q3,T3,W3,Z3,AC3)</f>
+        <v>0.99625594116973504</v>
+      </c>
+      <c r="D13" s="1">
+        <f>AVERAGE(C3,F3,I3,L3,O3,R3,U3,X3,AA3,AD3)</f>
+        <v>0.91958191035919179</v>
+      </c>
+      <c r="E13" s="1">
+        <f>AVERAGE(D3,G3,J3,M3,P3,S3,V3,Y3,AB3,AE3)</f>
+        <v>0.95637600052814109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>1</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="1">
-        <f t="shared" ref="C13:C16" si="0">AVERAGE(B3,E3,H3,K3,N3,Q3,T3,W3,Z3,AC3)</f>
+      <c r="B14" s="7"/>
+      <c r="C14" s="1">
+        <f t="shared" ref="C14:C17" si="0">AVERAGE(B4,E4,H4,K4,N4,Q4,T4,W4,Z4,AC4)</f>
         <v>0.37836458289267949</v>
       </c>
-      <c r="D13" s="1">
-        <f t="shared" ref="D13:E13" si="1">AVERAGE(C3,F3,I3,L3,O3,R3,U3,X3,AA3,AD3)</f>
+      <c r="D14" s="1">
+        <f t="shared" ref="D14:E14" si="1">AVERAGE(C4,F4,I4,L4,O4,R4,U4,X4,AA4,AD4)</f>
         <v>0.92047502791990232</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E14" s="1">
         <f t="shared" si="1"/>
         <v>0.5360818896913655</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>2</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="1">
+      <c r="B15" s="7"/>
+      <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>0.8792930002406989</v>
       </c>
-      <c r="D14" s="1">
-        <f t="shared" ref="D14:E14" si="2">AVERAGE(C4,F4,I4,L4,O4,R4,U4,X4,AA4,AD4)</f>
+      <c r="D15" s="1">
+        <f t="shared" ref="D15:E15" si="2">AVERAGE(C5,F5,I5,L5,O5,R5,U5,X5,AA5,AD5)</f>
         <v>0.9472094862566196</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E15" s="1">
         <f t="shared" si="2"/>
         <v>0.9119044824905872</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>3</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="1">
+      <c r="B16" s="7"/>
+      <c r="C16" s="1">
         <f t="shared" si="0"/>
         <v>0.25296031126859014</v>
       </c>
-      <c r="D15" s="1">
-        <f t="shared" ref="D15:E15" si="3">AVERAGE(C5,F5,I5,L5,O5,R5,U5,X5,AA5,AD5)</f>
+      <c r="D16" s="1">
+        <f t="shared" ref="D16:E16" si="3">AVERAGE(C6,F6,I6,L6,O6,R6,U6,X6,AA6,AD6)</f>
         <v>0.93646604938271594</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E16" s="1">
         <f t="shared" si="3"/>
         <v>0.39743022048650678</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>4</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="1">
+      <c r="B17" s="7"/>
+      <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>0.96430110238648792</v>
       </c>
-      <c r="D16" s="1">
-        <f t="shared" ref="D16:E16" si="4">AVERAGE(C6,F6,I6,L6,O6,R6,U6,X6,AA6,AD6)</f>
+      <c r="D17" s="1">
+        <f t="shared" ref="D17:E17" si="4">AVERAGE(C7,F7,I7,L7,O7,R7,U7,X7,AA7,AD7)</f>
         <v>0.98942662156217653</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E17" s="1">
         <f t="shared" si="4"/>
         <v>0.97668393272356702</v>
       </c>
     </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>0</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.95499999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>1</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="6">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.52400000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>2</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="6">
+        <v>0.878</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.91300000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>3</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.94</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.39400000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>4</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="6">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0.97699999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>0</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="10">
+        <f>(C13-C21)/C21</f>
+        <v>-3.7440588302649624E-3</v>
+      </c>
+      <c r="D29" s="10">
+        <f t="shared" ref="D29:E29" si="5">(D13-D21)/D21</f>
+        <v>1.7232138989016902E-3</v>
+      </c>
+      <c r="E29" s="10">
+        <f t="shared" si="5"/>
+        <v>1.44083824936244E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>1</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="10">
+        <f t="shared" ref="C30:E33" si="6">(C14-C22)/C22</f>
+        <v>2.5378273421895654E-2</v>
+      </c>
+      <c r="D30" s="10">
+        <f t="shared" si="6"/>
+        <v>1.6050358214388281E-3</v>
+      </c>
+      <c r="E30" s="10">
+        <f t="shared" si="6"/>
+        <v>2.3057041395735643E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>2</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="10">
+        <f t="shared" si="6"/>
+        <v>1.4726654222083073E-3</v>
+      </c>
+      <c r="D31" s="10">
+        <f t="shared" si="6"/>
+        <v>-3.9858188679078371E-3</v>
+      </c>
+      <c r="E31" s="10">
+        <f t="shared" si="6"/>
+        <v>-1.1999096488640038E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>3</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="10">
+        <f t="shared" si="6"/>
+        <v>1.1841245074360573E-2</v>
+      </c>
+      <c r="D32" s="10">
+        <f t="shared" si="6"/>
+        <v>-3.7595219332808615E-3</v>
+      </c>
+      <c r="E32" s="10">
+        <f t="shared" si="6"/>
+        <v>8.7061433667684346E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>4</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="10">
+        <f t="shared" si="6"/>
+        <v>-2.7910006344488651E-3</v>
+      </c>
+      <c r="D33" s="10">
+        <f t="shared" si="6"/>
+        <v>4.3136659471844639E-4</v>
+      </c>
+      <c r="E33" s="10">
+        <f t="shared" si="6"/>
+        <v>-3.2350795950149752E-4</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B12:B16"/>
+  <mergeCells count="6">
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A27:E27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
